--- a/Excel/RingConfig.xlsx
+++ b/Excel/RingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,9 @@
     <t>AttrRiseList</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -74,13 +77,22 @@
     <t>10,2,2,1</t>
   </si>
   <si>
+    <t>攻击的时候，有10%概率麻痹敌人，内置30秒CD</t>
+  </si>
+  <si>
     <t>护体神戒</t>
   </si>
   <si>
+    <t>每隔30秒，生成一个护盾</t>
+  </si>
+  <si>
     <t>复活神戒</t>
   </si>
   <si>
     <t>33,2004,2007,2002</t>
+  </si>
+  <si>
+    <t>死亡的时候复活，CD30秒</t>
   </si>
   <si>
     <t>防御神戒</t>
@@ -1057,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1072,7 +1084,8 @@
     <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
-    <col min="11" max="16366" width="9" style="2"/>
+    <col min="11" max="11" width="34.625" style="1" customWidth="1"/>
+    <col min="12" max="16366" width="9" style="2"/>
     <col min="16367" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1090,7 +1103,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1117,12 +1130,15 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1145,36 +1161,42 @@
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1188,19 +1210,22 @@
         <v>4001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1214,19 +1239,22 @@
         <v>4002</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1240,19 +1268,22 @@
         <v>4003</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1264,19 +1295,22 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1288,19 +1322,22 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1312,16 +1349,19 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="5:6">
@@ -1410,7 +1450,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 D4 E4 F4 G4 H4 I4 J4 D5 E5 F5 G5 H5 I5 J5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 D5 E5 F5 G5 H5 I5 J5 K5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/RingConfig.xlsx
+++ b/Excel/RingConfig.xlsx
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>7000001</v>
+        <v>190001</v>
       </c>
       <c r="F6" s="4">
         <v>4001</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>7000002</v>
+        <v>190002</v>
       </c>
       <c r="F7" s="4">
         <v>4002</v>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>7000003</v>
+        <v>190003</v>
       </c>
       <c r="F8" s="4">
         <v>4003</v>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>7000004</v>
+        <v>190004</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>7000005</v>
+        <v>190005</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>7000006</v>
+        <v>190006</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">

--- a/Excel/RingConfig.xlsx
+++ b/Excel/RingConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
     <t>SkillId</t>
   </si>
   <si>
+    <t>RiseSkillLevel</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -68,7 +71,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>麻痹神戒</t>
+    <t>麻痹戒指</t>
   </si>
   <si>
     <t>33,2004,2007,2011</t>
@@ -80,13 +83,13 @@
     <t>攻击的时候，有10%概率麻痹敌人，内置30秒CD</t>
   </si>
   <si>
-    <t>护体神戒</t>
+    <t>护身戒指</t>
   </si>
   <si>
     <t>每隔30秒，生成一个护盾</t>
   </si>
   <si>
-    <t>复活神戒</t>
+    <t>复活戒指</t>
   </si>
   <si>
     <t>33,2004,2007,2002</t>
@@ -95,13 +98,16 @@
     <t>死亡的时候复活，CD30秒</t>
   </si>
   <si>
-    <t>防御神戒</t>
+    <t>防御戒指</t>
+  </si>
+  <si>
+    <t>传送神戒</t>
   </si>
   <si>
     <t>33,2004,2007,2003</t>
   </si>
   <si>
-    <t>传送神戒</t>
+    <t>隐身戒指</t>
   </si>
 </sst>
 </file>
@@ -1069,41 +1075,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="34.625" style="1" customWidth="1"/>
-    <col min="12" max="16366" width="9" style="2"/>
-    <col min="16367" max="16384" width="9" style="1"/>
+    <col min="3" max="7" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.625" style="1" customWidth="1"/>
+    <col min="13" max="16367" width="9" style="2"/>
+    <col min="16368" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1133,12 +1139,15 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1164,21 +1173,24 @@
       <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
@@ -1187,16 +1199,19 @@
         <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1209,23 +1224,26 @@
       <c r="F6" s="4">
         <v>4001</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1238,23 +1256,26 @@
       <c r="F7" s="4">
         <v>4002</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1267,23 +1288,26 @@
       <c r="F8" s="4">
         <v>4003</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1293,24 +1317,29 @@
       <c r="E9" s="4">
         <v>190004</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="4">
+        <v>1008</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>16</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1320,24 +1349,29 @@
       <c r="E10" s="4">
         <v>190005</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="4">
+        <v>2008</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1347,110 +1381,131 @@
       <c r="E11" s="4">
         <v>190006</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
+      <c r="F11" s="4">
+        <v>3008</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="5:6">
+        <v>16</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="5:6">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="5:7">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="5:6">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 D5 E5 F5 G5 H5 I5 J5 K5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 D4 E4 F4 G4 H4 I4 J4 K4 L4 D5 E5 F5 G5 H5 I5 J5 K5 L5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/RingConfig.xlsx
+++ b/Excel/RingConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -74,40 +74,40 @@
     <t>麻痹戒指</t>
   </si>
   <si>
-    <t>33,2004,2007,2011</t>
-  </si>
-  <si>
-    <t>10,2,2,1</t>
-  </si>
-  <si>
-    <t>攻击的时候，有10%概率麻痹敌人，内置30秒CD</t>
+    <t>14,15,16,2001</t>
+  </si>
+  <si>
+    <t>200,500,500,5</t>
   </si>
   <si>
     <t>护身戒指</t>
   </si>
   <si>
-    <t>每隔30秒，生成一个护盾</t>
+    <t>14,15,16,2002</t>
   </si>
   <si>
     <t>复活戒指</t>
   </si>
   <si>
-    <t>33,2004,2007,2002</t>
-  </si>
-  <si>
-    <t>死亡的时候复活，CD30秒</t>
+    <t>14,15,16,2003</t>
   </si>
   <si>
     <t>防御戒指</t>
   </si>
   <si>
+    <t>护体神盾无需上阵，并且等级能额外增加20*戒指等级</t>
+  </si>
+  <si>
     <t>传送神戒</t>
   </si>
   <si>
-    <t>33,2004,2007,2003</t>
+    <t>瞬息移动无需上阵，并且等级能额外增加20*戒指等级</t>
   </si>
   <si>
     <t>隐身戒指</t>
+  </si>
+  <si>
+    <t>隐身术无需上阵，并且等级能额外增加20*戒指等级</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1211,7 +1211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1239,11 +1239,8 @@
       <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1260,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>16</v>
@@ -1271,11 +1268,8 @@
       <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1292,19 +1286,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1321,13 +1312,13 @@
         <v>1008</v>
       </c>
       <c r="G9" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>16</v>
@@ -1336,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1353,13 +1344,13 @@
         <v>2008</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>16</v>
@@ -1385,13 +1376,13 @@
         <v>3008</v>
       </c>
       <c r="G11" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>16</v>

--- a/Excel/RingConfig.xlsx
+++ b/Excel/RingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/RingConfig.xlsx
+++ b/Excel/RingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -95,16 +95,25 @@
     <t>防御戒指</t>
   </si>
   <si>
+    <t>14,15,16,2004</t>
+  </si>
+  <si>
     <t>护体神盾无需上阵，并且等级能额外增加20*戒指等级</t>
   </si>
   <si>
     <t>传送神戒</t>
   </si>
   <si>
+    <t>14,15,16,2005</t>
+  </si>
+  <si>
     <t>瞬息移动无需上阵，并且等级能额外增加20*戒指等级</t>
   </si>
   <si>
     <t>隐身戒指</t>
+  </si>
+  <si>
+    <t>14,15,16,2006</t>
   </si>
   <si>
     <t>隐身术无需上阵，并且等级能额外增加20*戒指等级</t>
@@ -1078,7 +1087,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1318,7 +1327,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>16</v>
@@ -1327,7 +1336,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1347,10 +1356,10 @@
         <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>16</v>
@@ -1359,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1379,10 +1388,10 @@
         <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>16</v>
@@ -1391,7 +1400,7 @@
         <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="5:7">
